--- a/protocols/SprintPlan_GamerHaven_Sprint1.xlsx
+++ b/protocols/SprintPlan_GamerHaven_Sprint1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Webproject_GamerHaven\protocols\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88ECB5B0-A573-4D9B-9362-E73A89097D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A12286B-C1AC-4C8A-B7C4-1283A3C4BB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -119,9 +119,6 @@
     <t>Team Number</t>
   </si>
   <si>
-    <t>16_GamerHaven</t>
-  </si>
-  <si>
     <t>Participant 1</t>
   </si>
   <si>
@@ -147,6 +144,9 @@
   </si>
   <si>
     <t>Sprint Plan Protocol</t>
+  </si>
+  <si>
+    <t>06_GamerHaven</t>
   </si>
 </sst>
 </file>
@@ -242,20 +242,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -563,7 +563,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="C6" sqref="C6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -574,146 +574,146 @@
     <col min="5" max="5" width="6.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" s="3" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="8">
+        <v>45746</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6">
-        <v>1</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" s="4" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="7">
-        <v>45746</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -730,139 +730,139 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="4">
         <v>1</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="4">
         <v>1</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="4">
         <v>1</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="4">
         <v>1</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="4">
         <v>1</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="4">
         <v>1</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="4">
         <v>0.25</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="4">
         <v>1</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="4" t="s">
         <v>19</v>
       </c>
     </row>
